--- a/medicine/Enfance/Mario_Ropp/Mario_Ropp.xlsx
+++ b/medicine/Enfance/Mario_Ropp/Mario_Ropp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mario Ropp, nom de plume de Marie-Anne Devillers, née le 18 décembre 1917 à Héricourt dans la Haute-Saône en France et morte le 20 décembre 2007 à Tonnerre, Yonne, est une écrivaine française, auteure de roman policier.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle passe son enfance à Belfort, puis fait des études à l'école nationale supérieure des arts décoratifs à Paris. Après la Seconde Guerre mondiale, elle travaille comme ouvrière dans un atelier de brochage avant d'être engagée comme dessinatrice en botanique à l'institut français d'Afrique noire, à Dakar, dirigé par Théodore Monod.
 En 1956, elle rencontre Armand de Caro, le fondateur du Fleuve noir. Pendant 27 ans, elle devient, sous le pseudonyme de Mario Ropp, l'un des auteurs les plus prolifiques de la collection Spécial Police.
-En 1959, Pierre Boileau, dans Le Saint détective magazine, à l'occasion de la publication de La Mort sur la piste, estime que « c'est un excellent roman d'aventures policières, bien mené, avec des scènes émouvantes, et dont le héros, le brutal et pitoyable Karl Räder, est dessiné avec bonheur »[1]. En 1968, à son propos, Maurice-Bernard Endrèbe, sous son pseudonyme Louise Lalanne, écrit dans une critique de Ne rêve donc pas, publiée dans Mystère magazine, que « Mario Ropp est au roman policier ce que Françoise Sagan est au roman tout court »[2].
+En 1959, Pierre Boileau, dans Le Saint détective magazine, à l'occasion de la publication de La Mort sur la piste, estime que « c'est un excellent roman d'aventures policières, bien mené, avec des scènes émouvantes, et dont le héros, le brutal et pitoyable Karl Räder, est dessiné avec bonheur ». En 1968, à son propos, Maurice-Bernard Endrèbe, sous son pseudonyme Louise Lalanne, écrit dans une critique de Ne rêve donc pas, publiée dans Mystère magazine, que « Mario Ropp est au roman policier ce que Françoise Sagan est au roman tout court ».
 Le roman Ne fais pas ça Isabella (1966) est adapté en 1967 pour un téléfilm au titre éponyme réalisé par Gilbert Pineau.
 </t>
         </is>
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Mario Ropp
-Dans la collection Spécial Police
+          <t>Romans signés Mario Ropp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dans la collection Spécial Police</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jeu sans joie, no 136 (1957)
 La Route aux loups, no 166 (1958), réédition Polar 50 no 29 (1989)
 La Mort sur la piste, no 187 (1959)
@@ -647,86 +670,268 @@
 Le bouscule pas, c'est qu'un môme, no 1795 (1983)
 Et la neige tombait..., no 1814 (1983)
 Mais Juana n'était pas morte, no 1839 (1983)
-Autres romans signés Mario Ropp
-Thalassa, Fleuve noir (1967)
-Mataï-Ino, Fleuve noir (1968)
-Romans signés Dominique Dorn
-Le Parfum de la peur, collection La Chouette no 141 (1959)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Mario Ropp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans signés Mario Ropp</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thalassa, Fleuve noir (1967)
+Mataï-Ino, Fleuve noir (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Dominique Dorn</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Parfum de la peur, collection La Chouette no 141 (1959)
 Le Rêve de Corinne, collection La Chouette no 150 (1959)
 Le Lévrier afghan, collection La Chouette no 162 (1960)
 Notre métro quotidien, collection La Chouette no 183 (1960)
 Les chiens ne parlent pas, collection La Chouette no 193 (1961)
 Solo, collection La Chouette no 206 (1961)
-Véronique et la Saint Médard, collection La Chouette no 216 (1961)
-Romans signés Maïa Walbert
-Cauchemar aux roches roses, Éd. Elan, Romans d’aujourd’hui
+Véronique et la Saint Médard, collection La Chouette no 216 (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Maïa Walbert</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cauchemar aux roches roses, Éd. Elan, Romans d’aujourd’hui
 L'amour ne vient jamais seul, Éd. Arabesque, Colorama (1959)
 Si peu le temps d’aimer, Éd. Arabesque, Colorama (1959)
 La clé est sous le paillasson, Éd. Arabesque, Colorama (1960)
-Lucioles au vent, Éd. Arabesque, Colorama (1960)
-Roman signé Michèle Vaudois
-De myrtilles et d'amour, Arabesque, Coll. Les Nymphes  (1961)
-Roman de littérature d'enfance et de jeunesse signé Maïa de Villers
-Samaïa, l'éléphant (1947)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Lucioles au vent, Éd. Arabesque, Colorama (1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mario_Ropp</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Roman signé Michèle Vaudois</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>De myrtilles et d'amour, Arabesque, Coll. Les Nymphes  (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse signé Maïa de Villers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Samaïa, l'éléphant (1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptation
-1967 : Ne fais pas ça Isabella, téléfilm français réalisé par Gilbert Pineau, adaptation du roman éponyme</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1967 : Ne fais pas ça Isabella, téléfilm français réalisé par Gilbert Pineau, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mario_Ropp</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mario_Ropp</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361).
 Jacques Baudou et Jean-Jacques Schleret, Les Métamorphoses de la chouette, p. 168, Futuropolis, 1986</t>
